--- a/MainTop/23.11.2024/WB_поставка_отправить.xlsx
+++ b/MainTop/23.11.2024/WB_поставка_отправить.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t xml:space="preserve">баркод</t>
   </si>
@@ -485,6 +485,42 @@
   </si>
   <si>
     <t xml:space="preserve">OZN1506318356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1564144981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1564132235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1564143276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1564146858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1564146056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1564146641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1564150584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1564133921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1564129445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1564149986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1564151229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1564150206</t>
   </si>
 </sst>
 </file>
@@ -603,15 +639,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B154"/>
+  <dimension ref="A1:B167"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A135" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A137" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F148" activeCellId="0" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,7 +680,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -651,7 +688,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -659,7 +696,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -667,7 +704,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -675,7 +712,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,7 +720,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,7 +736,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -707,7 +744,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,7 +752,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,7 +760,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -747,7 +784,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,7 +792,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,7 +808,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,7 +856,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,7 +864,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -915,7 +952,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -923,7 +960,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,7 +968,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -939,7 +976,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -947,7 +984,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -955,7 +992,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1027,7 +1064,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,7 +1072,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1043,7 +1080,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1051,7 +1088,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1059,7 +1096,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,7 +1104,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1075,7 +1112,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1083,7 +1120,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1091,7 +1128,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1099,7 +1136,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,7 +1144,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,7 +1152,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1123,7 +1160,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1131,7 +1168,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1139,7 +1176,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1147,7 +1184,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1155,7 +1192,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1163,7 +1200,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1171,7 +1208,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1179,7 +1216,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1187,7 +1224,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,7 +1232,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1203,7 +1240,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1211,7 +1248,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1219,7 +1256,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,7 +1264,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1235,7 +1272,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1243,7 +1280,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1251,7 +1288,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1259,7 +1296,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1267,7 +1304,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1275,7 +1312,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1283,7 +1320,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1291,7 +1328,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1299,7 +1336,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1307,7 +1344,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,7 +1352,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,7 +1360,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1331,7 +1368,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1339,7 +1376,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1347,7 +1384,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1355,7 +1392,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,7 +1400,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,7 +1408,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1379,7 +1416,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1387,7 +1424,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,7 +1432,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1403,7 +1440,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1411,7 +1448,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1419,7 +1456,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,7 +1464,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1435,7 +1472,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1443,7 +1480,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1451,7 +1488,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1459,7 +1496,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1467,7 +1504,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1475,7 +1512,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1483,7 +1520,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1491,7 +1528,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1499,7 +1536,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1507,7 +1544,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,7 +1552,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,7 +1560,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1531,7 +1568,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,7 +1576,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1547,7 +1584,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1627,7 +1664,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1643,7 +1680,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1651,7 +1688,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1667,7 +1704,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1683,7 +1720,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1691,7 +1728,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1699,7 +1736,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1707,7 +1744,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1715,7 +1752,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1723,7 +1760,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1731,7 +1768,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1739,7 +1776,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1747,7 +1784,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1755,7 +1792,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,6 +1883,103 @@
         <v>1</v>
       </c>
     </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
